--- a/simulated_data/collection/50nodes_10len_collection.xlsx
+++ b/simulated_data/collection/50nodes_10len_collection.xlsx
@@ -17,13 +17,6 @@
     <sheet name="trial7" sheetId="8" state="visible" r:id="rId8"/>
     <sheet name="trial8" sheetId="9" state="visible" r:id="rId9"/>
     <sheet name="trial9" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="max_error" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="max_percent_error" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="avg_error" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="avg_percent_error" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="true_positive" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="false_positive" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="runtime" sheetId="17" state="visible" r:id="rId17"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -940,2282 +933,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>rss_only</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>rss_post_averaged</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>spring_model</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>sdp</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>mds_metric</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>mds_non_metric</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>sdp_init_spring</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>14.48</v>
-      </c>
-      <c r="C2" t="n">
-        <v>7.41</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.107484023611068e+92</v>
-      </c>
-      <c r="E2" t="n">
-        <v>9.050000000000001</v>
-      </c>
-      <c r="F2" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="G2" t="n">
-        <v>10.07</v>
-      </c>
-      <c r="H2" t="n">
-        <v>8.112084570121136e+86</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>14.48</v>
-      </c>
-      <c r="C3" t="n">
-        <v>7.41</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.036252096391412e+92</v>
-      </c>
-      <c r="E3" t="n">
-        <v>9.050000000000001</v>
-      </c>
-      <c r="F3" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="G3" t="n">
-        <v>10.96</v>
-      </c>
-      <c r="H3" t="n">
-        <v>8.112084570121136e+86</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>12.61</v>
-      </c>
-      <c r="C4" t="n">
-        <v>6.31</v>
-      </c>
-      <c r="D4" t="n">
-        <v>7.86</v>
-      </c>
-      <c r="E4" t="n">
-        <v>11.99</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="G4" t="n">
-        <v>12.11</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1.44</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>12.61</v>
-      </c>
-      <c r="C5" t="n">
-        <v>6.31</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="E5" t="n">
-        <v>11.99</v>
-      </c>
-      <c r="F5" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="G5" t="n">
-        <v>10.62</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1.44</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>13.05</v>
-      </c>
-      <c r="C6" t="n">
-        <v>6.535</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>8.200000000000001</v>
-      </c>
-      <c r="F6" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="G6" t="n">
-        <v>9.23</v>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>13.05</v>
-      </c>
-      <c r="C7" t="n">
-        <v>6.535</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>8.200000000000001</v>
-      </c>
-      <c r="F7" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="G7" t="n">
-        <v>8.74</v>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>12.82</v>
-      </c>
-      <c r="C8" t="n">
-        <v>10.305</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>8.94</v>
-      </c>
-      <c r="F8" t="n">
-        <v>1.609999999999999</v>
-      </c>
-      <c r="G8" t="n">
-        <v>11.32</v>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>11.81</v>
-      </c>
-      <c r="C9" t="n">
-        <v>5.520000000000001</v>
-      </c>
-      <c r="D9" t="n">
-        <v>2.772852672669216e+123</v>
-      </c>
-      <c r="E9" t="n">
-        <v>9.26</v>
-      </c>
-      <c r="F9" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="G9" t="n">
-        <v>11.02</v>
-      </c>
-      <c r="H9" t="n">
-        <v>3.02897940807037e+122</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>11.81</v>
-      </c>
-      <c r="C10" t="n">
-        <v>5.520000000000001</v>
-      </c>
-      <c r="D10" t="n">
-        <v>2.500729031983454e+123</v>
-      </c>
-      <c r="E10" t="n">
-        <v>9.26</v>
-      </c>
-      <c r="F10" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="G10" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="H10" t="n">
-        <v>3.02897940807037e+122</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>12.82</v>
-      </c>
-      <c r="C11" t="n">
-        <v>10.305</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E11" t="n">
-        <v>8.94</v>
-      </c>
-      <c r="F11" t="n">
-        <v>1.609999999999999</v>
-      </c>
-      <c r="G11" t="n">
-        <v>10.48</v>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>rss_only</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>rss_post_averaged</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>spring_model</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>sdp</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>mds_metric</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>mds_non_metric</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>sdp_init_spring</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>2.235555555555556</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1.161971830985915</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.309128357725571e+92</v>
-      </c>
-      <c r="E2" t="n">
-        <v>3.290322580645161</v>
-      </c>
-      <c r="F2" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="G2" t="n">
-        <v>45.50000000000001</v>
-      </c>
-      <c r="H2" t="n">
-        <v>7.666618032698217e+87</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>2.235555555555556</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1.161971830985915</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3.812441910061328e+92</v>
-      </c>
-      <c r="E3" t="n">
-        <v>3.290322580645161</v>
-      </c>
-      <c r="F3" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="G3" t="n">
-        <v>59</v>
-      </c>
-      <c r="H3" t="n">
-        <v>7.666618032698217e+87</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2.231858407079646</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1.116814159292035</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.222222222222222</v>
-      </c>
-      <c r="E4" t="n">
-        <v>8.615384615384617</v>
-      </c>
-      <c r="F4" t="n">
-        <v>2.863636363636364</v>
-      </c>
-      <c r="G4" t="n">
-        <v>39.15384615384615</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1.307692307692307</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>2.231858407079646</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1.116814159292035</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.307692307692307</v>
-      </c>
-      <c r="E5" t="n">
-        <v>8.615384615384617</v>
-      </c>
-      <c r="F5" t="n">
-        <v>2.863636363636364</v>
-      </c>
-      <c r="G5" t="n">
-        <v>50.83333333333334</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1.307692307692307</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>2.23458904109589</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1.119006849315068</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>8.399999999999999</v>
-      </c>
-      <c r="F6" t="n">
-        <v>8.399999999999999</v>
-      </c>
-      <c r="G6" t="n">
-        <v>87.39999999999999</v>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>2.23458904109589</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1.119006849315068</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>8.399999999999999</v>
-      </c>
-      <c r="F7" t="n">
-        <v>8.399999999999999</v>
-      </c>
-      <c r="G7" t="n">
-        <v>174.8</v>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>2.027633851468049</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1.098445595854922</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>2.695652173913043</v>
-      </c>
-      <c r="F8" t="n">
-        <v>3.258064516129032</v>
-      </c>
-      <c r="G8" t="n">
-        <v>100.7142857142857</v>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>1.76530612244898</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.9922480620155038</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1.102099567624105e+124</v>
-      </c>
-      <c r="E9" t="n">
-        <v>3.555555555555555</v>
-      </c>
-      <c r="F9" t="n">
-        <v>3.857142857142857</v>
-      </c>
-      <c r="G9" t="n">
-        <v>91.42857142857142</v>
-      </c>
-      <c r="H9" t="n">
-        <v>4.327113440100528e+123</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>1.76530612244898</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.9922480620155038</v>
-      </c>
-      <c r="D10" t="n">
-        <v>2.474747587532018e+124</v>
-      </c>
-      <c r="E10" t="n">
-        <v>3.555555555555555</v>
-      </c>
-      <c r="F10" t="n">
-        <v>3.857142857142857</v>
-      </c>
-      <c r="G10" t="n">
-        <v>103.5714285714286</v>
-      </c>
-      <c r="H10" t="n">
-        <v>4.327113440100528e+123</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>2.027633851468049</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1.098445595854922</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E11" t="n">
-        <v>2.695652173913043</v>
-      </c>
-      <c r="F11" t="n">
-        <v>3.258064516129032</v>
-      </c>
-      <c r="G11" t="n">
-        <v>74.85714285714285</v>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>rss_only</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>rss_post_averaged</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>spring_model</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>sdp</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>mds_metric</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>mds_non_metric</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>sdp_init_spring</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1.44265306122449</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1.036567346938776</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.575316398947714e+91</v>
-      </c>
-      <c r="E2" t="n">
-        <v>2.493534693877551</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.3192081632653061</v>
-      </c>
-      <c r="G2" t="n">
-        <v>2.863665306122449</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1.408207404610322e+86</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1.44265306122449</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1.036567346938776</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.447337135098359e+91</v>
-      </c>
-      <c r="E3" t="n">
-        <v>2.493534693877551</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.3192081632653061</v>
-      </c>
-      <c r="G3" t="n">
-        <v>2.857297959183673</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1.408207404610322e+86</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>1.380057142857143</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.979061224489796</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.9786693877551019</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1.915248979591837</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.2627183673469388</v>
-      </c>
-      <c r="G4" t="n">
-        <v>2.736261224489796</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.3864979591836735</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>1.380057142857143</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.979061224489796</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.3864979591836735</v>
-      </c>
-      <c r="E5" t="n">
-        <v>1.915248979591837</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.2627183673469388</v>
-      </c>
-      <c r="G5" t="n">
-        <v>2.846432653061225</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.3864979591836735</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>1.233012244897959</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.8921918367346938</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>1.686285714285714</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.2636408163265306</v>
-      </c>
-      <c r="G6" t="n">
-        <v>2.378661224489796</v>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1.233012244897959</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.8921918367346938</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>1.686285714285714</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.2636408163265306</v>
-      </c>
-      <c r="G7" t="n">
-        <v>2.597869387755102</v>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>1.501208163265306</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1.081489795918367</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>1.612636734693878</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.3659020408163265</v>
-      </c>
-      <c r="G8" t="n">
-        <v>3.202473469387755</v>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>1.373297959183673</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.9808775510204082</v>
-      </c>
-      <c r="D9" t="n">
-        <v>4.205231810867511e+122</v>
-      </c>
-      <c r="E9" t="n">
-        <v>2.147885714285715</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.2450938775510204</v>
-      </c>
-      <c r="G9" t="n">
-        <v>2.804751020408164</v>
-      </c>
-      <c r="H9" t="n">
-        <v>3.992198153174755e+121</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>1.373297959183673</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.9808775510204082</v>
-      </c>
-      <c r="D10" t="n">
-        <v>3.064172750260427e+122</v>
-      </c>
-      <c r="E10" t="n">
-        <v>2.147885714285715</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.2450938775510204</v>
-      </c>
-      <c r="G10" t="n">
-        <v>2.90894693877551</v>
-      </c>
-      <c r="H10" t="n">
-        <v>3.992198153174755e+121</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>1.501208163265306</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1.081489795918367</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E11" t="n">
-        <v>1.612636734693878</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.3659020408163265</v>
-      </c>
-      <c r="G11" t="n">
-        <v>3.128832653061224</v>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>rss_only</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>rss_post_averaged</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>spring_model</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>sdp</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>mds_metric</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>mds_non_metric</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>sdp_init_spring</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.261866499102518</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.186333846626831</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.914278110126876e+90</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.4575787042678336</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.08365013307458243</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.9326432643287114</v>
-      </c>
-      <c r="H2" t="n">
-        <v>4.439279078242026e+85</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0.261866499102518</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.186333846626831</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3.681461385371773e+90</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.4575787042678336</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.08365013307458243</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.9421312934748814</v>
-      </c>
-      <c r="H3" t="n">
-        <v>4.439279078242026e+85</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0.2632537943881326</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1898422306864816</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.1893886990054529</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.385506929481533</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.07287617631558609</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.8943253250737936</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.08807267366277365</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0.2632537943881326</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1898422306864816</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.08807267366277365</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.385506929481533</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.07287617631558609</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.9032527867954412</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.08807267366277365</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0.2651130416428174</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1905486919777545</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>0.3950909897470922</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.08881496339308277</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.918587735626179</v>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0.2651130416428174</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1905486919777545</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>0.3950909897470922</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.08881496339308277</v>
-      </c>
-      <c r="G7" t="n">
-        <v>1.139971129025255</v>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0.2615291577426033</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.187189470627206</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>0.3345085819536342</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.09740515226974977</v>
-      </c>
-      <c r="G8" t="n">
-        <v>1.127201140772607</v>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0.262101587845703</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1896390393778911</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1.201093128512426e+122</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.4253860409723234</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.07414454021864358</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.9633265457414016</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1.499137032551267e+121</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0.262101587845703</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1896390393778911</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1.014507217900928e+122</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.4253860409723234</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.07414454021864358</v>
-      </c>
-      <c r="G10" t="n">
-        <v>1.01146929735214</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1.499137032551267e+121</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0.2615291577426033</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.187189470627206</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E11" t="n">
-        <v>0.3345085819536342</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.09740515226974977</v>
-      </c>
-      <c r="G11" t="n">
-        <v>1.078893526509838</v>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>rss_only</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>rss_post_averaged</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>spring_model</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>sdp</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>mds_metric</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>mds_non_metric</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>sdp_init_spring</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.8264462809917356</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.9008264462809917</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.9421487603305785</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.9090909090909091</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.09917355371900827</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0.8264462809917356</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.9008264462809917</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.9421487603305785</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.9090909090909091</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.1074380165289256</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0.8359375</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.796875</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.921875</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.921875</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.8359375</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.0859375</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.90625</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0.8359375</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.796875</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.90625</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.921875</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.8359375</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.1171875</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.90625</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0.8066666666666666</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.8533333333333334</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.9266666666666666</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.8666666666666667</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.1866666666666667</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0.8066666666666666</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.8533333333333334</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.9266666666666666</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.8666666666666667</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.08666666666666667</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0.8688524590163934</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.9016393442622951</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.8852459016393442</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.7950819672131147</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.06557377049180328</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0.8416666666666667</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.8666666666666667</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.975</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.8416666666666667</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0.8416666666666667</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.8666666666666667</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.975</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.8416666666666667</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0.1083333333333333</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0.8688524590163934</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.9016393442622951</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.8852459016393442</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.7950819672131147</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0.09836065573770492</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>rss_only</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>rss_post_averaged</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>spring_model</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>sdp</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>mds_metric</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>mds_non_metric</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>sdp_init_spring</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.03713768115942029</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.01811594202898551</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.3152173913043478</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.008152173913043478</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.08242753623188406</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0.03713768115942029</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.01811594202898551</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.3152173913043478</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.008152173913043478</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.08695652173913043</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0.03923357664233577</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.02007299270072993</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.04562043795620438</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.2764598540145985</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.01003649635036496</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.09945255474452555</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.02007299270072993</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0.03923357664233577</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.02007299270072993</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.02007299270072993</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.2764598540145985</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.01003649635036496</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.09580291970802919</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.02007299270072993</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.0186046511627907</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.2948837209302326</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.008372093023255815</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.09581395348837209</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.0186046511627907</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.2948837209302326</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.008372093023255815</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.1190697674418605</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0.02631578947368421</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.01542649727767695</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.2323049001814882</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.008166969147005444</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.09074410163339383</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0.03710407239819005</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.02352941176470588</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.3158371040723982</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.01085972850678733</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.09954751131221719</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0.03710407239819005</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.02352941176470588</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.3158371040723982</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.01085972850678733</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0.1067873303167421</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0.02631578947368421</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.01542649727767695</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.2323049001814882</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.008166969147005444</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0.07985480943738657</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>rss_only</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>rss_post_averaged</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>spring_model</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>sdp</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>mds_metric</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>mds_non_metric</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>sdp_init_spring</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.0009646415710449219</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.0008556842803955078</v>
-      </c>
-      <c r="D2" t="n">
-        <v>45.82063889503479</v>
-      </c>
-      <c r="E2" t="n">
-        <v>57.40978527069092</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.1475589275360107</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.06172895431518555</v>
-      </c>
-      <c r="H2" t="n">
-        <v>68.73730063438416</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0.000732421875</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.0007588863372802734</v>
-      </c>
-      <c r="D3" t="n">
-        <v>42.27251935005188</v>
-      </c>
-      <c r="E3" t="n">
-        <v>59.52245140075684</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.1957640647888184</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.08215546607971191</v>
-      </c>
-      <c r="H3" t="n">
-        <v>108.2923567295074</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0.001069545745849609</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.0009181499481201172</v>
-      </c>
-      <c r="D4" t="n">
-        <v>7.54164719581604</v>
-      </c>
-      <c r="E4" t="n">
-        <v>54.14806318283081</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.3162600994110107</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.09278750419616699</v>
-      </c>
-      <c r="H4" t="n">
-        <v>104.879123210907</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0.0009493827819824219</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.0008485317230224609</v>
-      </c>
-      <c r="D5" t="n">
-        <v>44.86490154266357</v>
-      </c>
-      <c r="E5" t="n">
-        <v>56.73308253288269</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.3556647300720215</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.09003233909606934</v>
-      </c>
-      <c r="H5" t="n">
-        <v>95.99249792098999</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0.0008628368377685547</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.001056194305419922</v>
-      </c>
-      <c r="D6" t="n">
-        <v>30.01988053321838</v>
-      </c>
-      <c r="E6" t="n">
-        <v>59.02087998390198</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.1497478485107422</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.07441544532775879</v>
-      </c>
-      <c r="H6" t="n">
-        <v>86.09210348129272</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0.0007011890411376953</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.0007100105285644531</v>
-      </c>
-      <c r="D7" t="n">
-        <v>28.77700614929199</v>
-      </c>
-      <c r="E7" t="n">
-        <v>57.04759931564331</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.2334282398223877</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.09042119979858398</v>
-      </c>
-      <c r="H7" t="n">
-        <v>88.25574088096619</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0.0008313655853271484</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.001077413558959961</v>
-      </c>
-      <c r="D8" t="n">
-        <v>41.7375226020813</v>
-      </c>
-      <c r="E8" t="n">
-        <v>58.18312907218933</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.18100905418396</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.0722048282623291</v>
-      </c>
-      <c r="H8" t="n">
-        <v>99.25252914428711</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0.0006661415100097656</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.0006489753723144531</v>
-      </c>
-      <c r="D9" t="n">
-        <v>45.35039639472961</v>
-      </c>
-      <c r="E9" t="n">
-        <v>54.6276376247406</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.144970178604126</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.07908844947814941</v>
-      </c>
-      <c r="H9" t="n">
-        <v>97.32877802848816</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0.001074314117431641</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.0009551048278808594</v>
-      </c>
-      <c r="D10" t="n">
-        <v>43.28116965293884</v>
-      </c>
-      <c r="E10" t="n">
-        <v>54.37599277496338</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.1488192081451416</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0.07704877853393555</v>
-      </c>
-      <c r="H10" t="n">
-        <v>99.84846091270447</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0.000728607177734375</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.0005965232849121094</v>
-      </c>
-      <c r="D11" t="n">
-        <v>39.8200101852417</v>
-      </c>
-      <c r="E11" t="n">
-        <v>59.01957583427429</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.2341544628143311</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0.06203222274780273</v>
-      </c>
-      <c r="H11" t="n">
-        <v>99.31776213645935</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
